--- a/documents/ICTWEB304_305_431_Images register_Lei_Li.xlsx
+++ b/documents/ICTWEB304_305_431_Images register_Lei_Li.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genie\OneDrive\桌面\IT-CirIII\07(ICTWEB304)\Assessment\TheCakery\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genie\OneDrive\桌面\IT-CirIII\07(ICTWEB304)\Assessment\TheCakery\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C6AE9B-6EA0-439D-A65B-A8C137B01598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98A6F43-0CEA-41D0-8969-17249458E080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27520" yWindow="-5520" windowWidth="23550" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-9660" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Image Register" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
   <si>
     <t>File Name</t>
   </si>
@@ -79,9 +79,6 @@
     <t>MODIFICATIONS</t>
   </si>
   <si>
-    <t>&lt;image appears on which page&gt;</t>
-  </si>
-  <si>
     <t>\img\originals</t>
   </si>
   <si>
@@ -176,13 +173,97 @@
   </si>
   <si>
     <t>5.85 MB</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>200 px x 200 px</t>
+  </si>
+  <si>
+    <t>44.8 KB</t>
+  </si>
+  <si>
+    <t>main, gallery, contact</t>
+  </si>
+  <si>
+    <t>banner</t>
+  </si>
+  <si>
+    <t>1000 px x 200 px</t>
+  </si>
+  <si>
+    <t>160 KB</t>
+  </si>
+  <si>
+    <t>resize, contract, edit text</t>
+  </si>
+  <si>
+    <t>resize, replace color, edite text</t>
+  </si>
+  <si>
+    <t>socialmediaIcon_facebook, socialmediaIcon_instagram,  socialmediaIcon_twitter</t>
+  </si>
+  <si>
+    <t>50 px x 50 px</t>
+  </si>
+  <si>
+    <t>0.86 KB, 4.17 KB, 1.07 KB</t>
+  </si>
+  <si>
+    <t>resize, crop</t>
+  </si>
+  <si>
+    <t>mainpage</t>
+  </si>
+  <si>
+    <t>600 px x 600 px</t>
+  </si>
+  <si>
+    <t>129 KB</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>resize, rotate, crop</t>
+  </si>
+  <si>
+    <t>gallery_1</t>
+  </si>
+  <si>
+    <t>gallery_2</t>
+  </si>
+  <si>
+    <t>gallery_3</t>
+  </si>
+  <si>
+    <t>400 px x 500 px</t>
+  </si>
+  <si>
+    <t>80.7 KB</t>
+  </si>
+  <si>
+    <t>288 KB</t>
+  </si>
+  <si>
+    <t>173 KB</t>
+  </si>
+  <si>
+    <t>gallery</t>
+  </si>
+  <si>
+    <t>resize, crop, blur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,13 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Open Sans"/>
@@ -420,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -428,11 +502,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -447,13 +518,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -462,28 +533,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -829,120 +900,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="9" customWidth="1"/>
-    <col min="12" max="14" width="11.453125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="19.1796875" style="9" customWidth="1"/>
-    <col min="16" max="16" width="19.453125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="17.26953125" style="4" customWidth="1"/>
-    <col min="18" max="20" width="14.453125" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="4.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="35.54296875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="17.26953125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="19.1796875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="19.453125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="17.26953125" style="3" customWidth="1"/>
+    <col min="18" max="20" width="14.453125" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="19"/>
     </row>
     <row r="2" spans="2:17" ht="23" x14ac:dyDescent="0.6">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="15" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" spans="2:17" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -950,257 +1023,351 @@
       <c r="B4" s="2">
         <v>3576168</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2">
         <v>7140942</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="80" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="J6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="2"/>
@@ -1211,7 +1378,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="1"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1229,7 +1396,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="1"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1255,6 +1422,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -1268,15 +1444,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1508,20 +1675,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C72D7310-48BF-4EBB-8897-C5CF8862AF15}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92AAF392-C1AD-47EE-B73C-EAEB45355DAE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="688aeeea-db70-49fc-acfa-1a2dd513aa3d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C72D7310-48BF-4EBB-8897-C5CF8862AF15}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
